--- a/Output.xlsx
+++ b/Output.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NomeDaNovaAba" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Pontos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
